--- a/data/trans_dic/P36$fruta-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 17,35</t>
+          <t>10,78; 16,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,51; 20,03</t>
+          <t>12,39; 19,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,74; 20,07</t>
+          <t>12,41; 20,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 22,35</t>
+          <t>13,8; 22,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 23,11</t>
+          <t>13,51; 23,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 21,99</t>
+          <t>13,76; 21,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,74</t>
+          <t>12,69; 17,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 19,88</t>
+          <t>14,21; 20,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,83; 19,36</t>
+          <t>13,87; 19,5</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 12,47</t>
+          <t>6,11; 12,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 15,33</t>
+          <t>8,49; 15,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,61; 18,55</t>
+          <t>9,95; 17,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 16,13</t>
+          <t>9,49; 17,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 17,24</t>
+          <t>9,66; 17,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,35; 20,46</t>
+          <t>12,44; 20,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,34</t>
+          <t>8,63; 13,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,68; 14,96</t>
+          <t>9,96; 14,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 17,79</t>
+          <t>12,18; 17,81</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 11,24</t>
+          <t>6,38; 11,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 13,04</t>
+          <t>7,79; 12,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 13,01</t>
+          <t>7,73; 13,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 15,8</t>
+          <t>6,41; 15,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,98</t>
+          <t>7,16; 15,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 15,35</t>
+          <t>5,67; 15,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,62</t>
+          <t>7,02; 11,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 12,73</t>
+          <t>8,42; 12,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,81</t>
+          <t>8,08; 12,61</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,19</t>
+          <t>4,46; 7,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,03</t>
+          <t>10,03; 13,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,11</t>
+          <t>9,35; 13,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 12,59</t>
+          <t>7,99; 12,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,52</t>
+          <t>8,86; 13,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,0</t>
+          <t>12,25; 17,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,48</t>
+          <t>6,08; 8,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 13,13</t>
+          <t>10,02; 13,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,0; 14,03</t>
+          <t>11,07; 13,95</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 10,07</t>
+          <t>4,31; 9,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,12</t>
+          <t>6,34; 11,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 16,18</t>
+          <t>10,48; 15,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,21</t>
+          <t>5,54; 10,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,02; 12,96</t>
+          <t>8,23; 12,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,84</t>
+          <t>10,13; 15,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,22</t>
+          <t>5,79; 9,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,55</t>
+          <t>7,99; 11,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,54</t>
+          <t>10,71; 14,59</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,06; 12,58</t>
+          <t>5,89; 12,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,43; 22,75</t>
+          <t>13,4; 22,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,01; 25,2</t>
+          <t>15,42; 25,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,41; 11,89</t>
+          <t>8,6; 11,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 16,29</t>
+          <t>12,11; 16,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,38</t>
+          <t>9,32; 13,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 11,61</t>
+          <t>8,61; 11,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,89; 16,61</t>
+          <t>12,85; 16,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,24; 15,02</t>
+          <t>11,29; 15,19</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 9,06</t>
+          <t>7,25; 9,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,99; 13,35</t>
+          <t>10,98; 13,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,9; 14,24</t>
+          <t>11,81; 14,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,82</t>
+          <t>9,58; 11,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,56; 13,94</t>
+          <t>11,5; 13,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,22; 14,56</t>
+          <t>12,11; 14,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 10,1</t>
+          <t>8,67; 10,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,5; 13,07</t>
+          <t>11,42; 13,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,26; 13,98</t>
+          <t>12,25; 14,01</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, fruta o zumo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64302</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>69662</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>67121</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>53765</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>56735</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>61120</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>118068</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>126397</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>128241</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50956; 80260</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>54162; 86749</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>53245; 86489</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>42328; 68938</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42315; 73810</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>47742; 74706</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>98932; 140154</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>106622; 151001</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>107675; 151335</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48728</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51939</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46473</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43878</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>59661</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>78738</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>92606</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22325; 46322</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35380; 64238</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>37524; 66105</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35196; 64949</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>32638; 58075</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>46164; 74942</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>63486; 99008</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>75164; 112648</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>91142; 133301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47414</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63563</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>52524</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17592</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27781</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16898</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>65006</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>91344</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>69421</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34462; 62253</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48860; 80769</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40255; 68895</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10762; 26014</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18617; 39352</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9421; 25506</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>49747; 81168</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>74704; 111190</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>55520; 86655</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>69706</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>135761</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>127926</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>71533</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>84385</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>119465</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>141238</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>220146</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>247391</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>55152; 87678</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>116130; 160426</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>107441; 150853</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>56971; 89887</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67717; 103809</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>101208; 143023</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>118564; 166495</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>192698; 252145</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>218657; 275504</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23601</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>43409</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>80313</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>43501</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>78436</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>90980</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>67102</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>121845</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>171293</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15117; 34704</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32315; 57050</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>64870; 96983</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>31408; 59212</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>62454; 96398</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>74750; 111357</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>53153; 87884</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>101322; 144128</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>145379; 198039</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26422</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>47538</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>57928</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>126423</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>155139</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>121416</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>152845</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>202677</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>179344</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>17561; 36830</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>35769; 60980</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>44282; 73158</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>107349; 147856</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>134326; 179184</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100680; 142697</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>133225; 177525</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>176906; 230400</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>154327; 207653</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>263710</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>408661</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>437750</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>359288</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>446354</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>469540</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>622997</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>855016</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>907290</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>236584; 295672</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>374931; 452209</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>399333; 478833</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>323180; 393661</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>407545; 489991</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>427201; 512669</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>575751; 672350</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>795129; 906858</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>846464; 967891</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36$fruta-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
